--- a/findstock.xlsx
+++ b/findstock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,24 +588,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00650.HK</t>
+          <t>00293.HK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>普達特科技</t>
+          <t>國泰航空</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>3041</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.02億</t>
+          <t>549.74億</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9002000000</v>
+        <v>54974000000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.47</v>
+        <v>0.76</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -622,301 +622,529 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>29.76%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.38億</t>
+          <t>455.87億</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-92.000%</t>
+          <t>-2.000%</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-4.79億</t>
+          <t>-14.43億</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2022-08-09</t>
+          <t>2022-08-10</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1.200000047683716</v>
+        <v>8.520000457763672</v>
       </c>
       <c r="P2" t="n">
-        <v>1.200000047683716</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.129999995231628</v>
+        <v>8.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.200000047683716</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="S2" t="n">
-        <v>1.200000047683716</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="T2" t="n">
-        <v>218757500</v>
+        <v>19242488</v>
       </c>
       <c r="U2" t="n">
-        <v>1.211000037193298</v>
+        <v>8.368000221252441</v>
       </c>
       <c r="V2" t="n">
-        <v>1.197000014781952</v>
+        <v>8.346000099182129</v>
       </c>
       <c r="W2" t="n">
-        <v>1.145000007152557</v>
+        <v>8.212800045013427</v>
       </c>
       <c r="X2" t="n">
-        <v>1.085199999809265</v>
+        <v>7.973700041770935</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.121719999551773</v>
+        <v>7.216000022888184</v>
       </c>
       <c r="Z2" t="n">
-        <v>23081350</v>
+        <v>10236150.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>13434375</v>
+        <v>8435654.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>8136631.04</v>
+        <v>9995902.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>6236535.87</v>
+        <v>10624378.41</v>
       </c>
       <c r="AD2" t="n">
-        <v>6346414.488</v>
+        <v>7664462.252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01212.HK</t>
+          <t>00316.HK</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>利福國際</t>
+          <t>東方海外國際</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3014</v>
+        <v>3045</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69.39億</t>
+          <t>1,730.18億</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6939000000</v>
+        <v>173018000000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>無盈利</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.61</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>22.95%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>73.12%</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>48.57%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>69.58%</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>22.90億</t>
+          <t>1,312.57億</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>14.000%</t>
+          <t>106.000%</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-11.73億</t>
+          <t>575.51億</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2022-08-09</t>
+          <t>2022-08-10</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>4.659999847412109</v>
+        <v>265.6000061035156</v>
       </c>
       <c r="P3" t="n">
-        <v>4.659999847412109</v>
+        <v>266.7999877929688</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.610000133514404</v>
+        <v>257.7999877929688</v>
       </c>
       <c r="R3" t="n">
-        <v>4.619999885559082</v>
+        <v>266</v>
       </c>
       <c r="S3" t="n">
-        <v>4.619999885559082</v>
+        <v>266</v>
       </c>
       <c r="T3" t="n">
-        <v>7416500</v>
+        <v>1135648</v>
       </c>
       <c r="U3" t="n">
-        <v>3.17999997138977</v>
+        <v>266.5200042724609</v>
       </c>
       <c r="V3" t="n">
-        <v>2.961999988555908</v>
+        <v>258.7000007629395</v>
       </c>
       <c r="W3" t="n">
-        <v>3.135000004768372</v>
+        <v>242.5720001220703</v>
       </c>
       <c r="X3" t="n">
-        <v>3.433100001811981</v>
+        <v>231.0780001831055</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.09767999458313</v>
+        <v>194.3992001037598</v>
       </c>
       <c r="Z3" t="n">
-        <v>4973650</v>
+        <v>1088520.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>2881950</v>
+        <v>1172551.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>1362538.9</v>
+        <v>1877494.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>862117.05</v>
+        <v>1930425.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>583764.644</v>
+        <v>1547436.772</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01381.HK</t>
+          <t>00710.HK</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>粵豐環保</t>
+          <t>京東方精電</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4001</v>
+        <v>7011</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>101.97億</t>
+          <t>135.97億</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10197000000</v>
+        <v>13597000000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>40.93</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.2</v>
+        <v>4.48</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.58%</t>
+          <t>0.81%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>31.06%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>19.85%</t>
+          <t>33.26%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>67.95億</t>
+          <t>78.00億</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>36.000%</t>
+          <t>71.000%</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>18.63億</t>
+          <t>3.50億</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2022-08-09</t>
+          <t>2022-08-10</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>4.090000152587891</v>
+        <v>18.23999977111816</v>
       </c>
       <c r="P4" t="n">
-        <v>4.320000171661377</v>
+        <v>18.47999954223633</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.059999942779541</v>
+        <v>17.52000045776367</v>
       </c>
       <c r="R4" t="n">
-        <v>4.190000057220459</v>
+        <v>17.79999923706055</v>
       </c>
       <c r="S4" t="n">
-        <v>4.190000057220459</v>
+        <v>17.79999923706055</v>
       </c>
       <c r="T4" t="n">
-        <v>6468000</v>
+        <v>3151000</v>
       </c>
       <c r="U4" t="n">
-        <v>4.061000013351441</v>
+        <v>18.20399990081787</v>
       </c>
       <c r="V4" t="n">
-        <v>4.052000021934509</v>
+        <v>17.65500001907349</v>
       </c>
       <c r="W4" t="n">
-        <v>3.99580002784729</v>
+        <v>14.62660007476807</v>
       </c>
       <c r="X4" t="n">
-        <v>3.715600018501282</v>
+        <v>11.56980005264282</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.964840016365051</v>
+        <v>10.07376003646851</v>
       </c>
       <c r="Z4" t="n">
-        <v>1585891.2</v>
+        <v>2487814.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>1105436.6</v>
+        <v>3105729.25</v>
       </c>
       <c r="AB4" t="n">
-        <v>924347.16</v>
+        <v>3737805.36</v>
       </c>
       <c r="AC4" t="n">
-        <v>1089611.07</v>
+        <v>2858230.37</v>
       </c>
       <c r="AD4" t="n">
-        <v>1367304.696</v>
+        <v>3400277.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01138.HK</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>中遠海能</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3045</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>73.09億</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>7309000000</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>無盈利</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-32.34%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>154.83億</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-20.000%</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>-58.56億</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>5.690000057220459</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5.949999809265137</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5.380000114440918</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.380000114440918</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5.380000114440918</v>
+      </c>
+      <c r="T5" t="n">
+        <v>28817859</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5.39399995803833</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5.320000004768372</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.001599979400635</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.515899994373322</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.746439998626709</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>20999338.9</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23895821.35</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>27362121.98</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>23793334.27</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>14847289.072</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01385.HK</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>上海復旦</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7031</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>93.83億</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>9383000000</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>39.06</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.24%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>58.91%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>9.42%</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>31.56億</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>56.000%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>7.02億</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>32.95000076293945</v>
+      </c>
+      <c r="P6" t="n">
+        <v>34.34999847412109</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>32.70000076293945</v>
+      </c>
+      <c r="R6" t="n">
+        <v>34</v>
+      </c>
+      <c r="S6" t="n">
+        <v>34</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5507000</v>
+      </c>
+      <c r="U6" t="n">
+        <v>31.575</v>
+      </c>
+      <c r="V6" t="n">
+        <v>30.33749990463257</v>
+      </c>
+      <c r="W6" t="n">
+        <v>29.06900005340576</v>
+      </c>
+      <c r="X6" t="n">
+        <v>26.69869995117188</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>24.64996000671387</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2878010</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2418715</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2314988.68</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2211571.09</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2686326.656</v>
       </c>
     </row>
   </sheetData>

--- a/findstock.xlsx
+++ b/findstock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,11 +601,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>549.74億</t>
+          <t>577.42億</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>54974000000</v>
+        <v>57742000000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -643,508 +643,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2022-08-10</t>
+          <t>2022-08-11</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>8.520000457763672</v>
+        <v>8.659999847412109</v>
       </c>
       <c r="P2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.979999542236328</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.5</v>
+        <v>8.640000343322754</v>
       </c>
       <c r="R2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="S2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="T2" t="n">
-        <v>19242488</v>
+        <v>17549954</v>
       </c>
       <c r="U2" t="n">
-        <v>8.368000221252441</v>
+        <v>8.44600019454956</v>
       </c>
       <c r="V2" t="n">
-        <v>8.346000099182129</v>
+        <v>8.367000102996826</v>
       </c>
       <c r="W2" t="n">
-        <v>8.212800045013427</v>
+        <v>8.227200050354003</v>
       </c>
       <c r="X2" t="n">
-        <v>7.973700041770935</v>
+        <v>7.995400042533874</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.216000022888184</v>
+        <v>7.227000022888183</v>
       </c>
       <c r="Z2" t="n">
-        <v>10236150.1</v>
+        <v>11400705.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>8435654.9</v>
+        <v>8928495.35</v>
       </c>
       <c r="AB2" t="n">
-        <v>9995902.9</v>
+        <v>10203927.64</v>
       </c>
       <c r="AC2" t="n">
-        <v>10624378.41</v>
+        <v>10695898.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7664462.252</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>00316.HK</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>東方海外國際</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3045</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1,730.18億</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>173018000000</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>22.95%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>48.57%</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>69.58%</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1,312.57億</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>106.000%</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>575.51億</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2022-08-10</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>265.6000061035156</v>
-      </c>
-      <c r="P3" t="n">
-        <v>266.7999877929688</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>257.7999877929688</v>
-      </c>
-      <c r="R3" t="n">
-        <v>266</v>
-      </c>
-      <c r="S3" t="n">
-        <v>266</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1135648</v>
-      </c>
-      <c r="U3" t="n">
-        <v>266.5200042724609</v>
-      </c>
-      <c r="V3" t="n">
-        <v>258.7000007629395</v>
-      </c>
-      <c r="W3" t="n">
-        <v>242.5720001220703</v>
-      </c>
-      <c r="X3" t="n">
-        <v>231.0780001831055</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>194.3992001037598</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1088520.2</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1172551.1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1877494.2</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1930425.2</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1547436.772</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>00710.HK</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>京東方精電</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7011</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>135.97億</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>13597000000</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>40.93</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.81%</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>33.26%</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>78.00億</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>71.000%</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>3.50億</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2022-08-10</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>18.23999977111816</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18.47999954223633</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>17.52000045776367</v>
-      </c>
-      <c r="R4" t="n">
-        <v>17.79999923706055</v>
-      </c>
-      <c r="S4" t="n">
-        <v>17.79999923706055</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3151000</v>
-      </c>
-      <c r="U4" t="n">
-        <v>18.20399990081787</v>
-      </c>
-      <c r="V4" t="n">
-        <v>17.65500001907349</v>
-      </c>
-      <c r="W4" t="n">
-        <v>14.62660007476807</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11.56980005264282</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10.07376003646851</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2487814.9</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>3105729.25</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3737805.36</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>2858230.37</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3400277.66</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>01138.HK</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>中遠海能</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3045</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>73.09億</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>7309000000</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>無盈利</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-32.34%</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>154.83億</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-20.000%</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>-58.56億</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2022-08-10</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>5.690000057220459</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5.949999809265137</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5.380000114440918</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5.380000114440918</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5.380000114440918</v>
-      </c>
-      <c r="T5" t="n">
-        <v>28817859</v>
-      </c>
-      <c r="U5" t="n">
-        <v>5.39399995803833</v>
-      </c>
-      <c r="V5" t="n">
-        <v>5.320000004768372</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5.001599979400635</v>
-      </c>
-      <c r="X5" t="n">
-        <v>4.515899994373322</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>3.746439998626709</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>20999338.9</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>23895821.35</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>27362121.98</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>23793334.27</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>14847289.072</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>01385.HK</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>上海復旦</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7031</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.83億</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>9383000000</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>39.06</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.24%</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>58.91%</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>9.42%</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>31.56億</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>56.000%</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>7.02億</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2022-08-10</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>32.95000076293945</v>
-      </c>
-      <c r="P6" t="n">
-        <v>34.34999847412109</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>32.70000076293945</v>
-      </c>
-      <c r="R6" t="n">
-        <v>34</v>
-      </c>
-      <c r="S6" t="n">
-        <v>34</v>
-      </c>
-      <c r="T6" t="n">
-        <v>5507000</v>
-      </c>
-      <c r="U6" t="n">
-        <v>31.575</v>
-      </c>
-      <c r="V6" t="n">
-        <v>30.33749990463257</v>
-      </c>
-      <c r="W6" t="n">
-        <v>29.06900005340576</v>
-      </c>
-      <c r="X6" t="n">
-        <v>26.69869995117188</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>24.64996000671387</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>2878010</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2418715</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>2314988.68</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>2211571.09</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2686326.656</v>
+        <v>7720504.16</v>
       </c>
     </row>
   </sheetData>

--- a/findstock.xlsx
+++ b/findstock.xlsx
@@ -588,111 +588,115 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00293.HK</t>
+          <t>01385.HK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>國泰航空</t>
+          <t>上海復旦</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3041</v>
+        <v>7031</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>577.42億</t>
+          <t>94.26億</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>57742000000</v>
+        <v>9426000000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>無盈利</t>
+          <t>39.24</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.8</v>
+        <v>7.02</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.24%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>58.91%</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>9.42%</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>455.87億</t>
+          <t>31.56億</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-2.000%</t>
+          <t>56.000%</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-14.43億</t>
+          <t>7.02億</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2022-08-11</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>8.659999847412109</v>
+        <v>33.5</v>
       </c>
       <c r="P2" t="n">
-        <v>8.979999542236328</v>
+        <v>33.79999923706055</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.640000343322754</v>
+        <v>32.34999847412109</v>
       </c>
       <c r="R2" t="n">
-        <v>8.920000076293945</v>
+        <v>33.15000152587891</v>
       </c>
       <c r="S2" t="n">
-        <v>8.920000076293945</v>
+        <v>33.15000152587891</v>
       </c>
       <c r="T2" t="n">
-        <v>17549954</v>
+        <v>2740000</v>
       </c>
       <c r="U2" t="n">
-        <v>8.44600019454956</v>
+        <v>32.54499988555908</v>
       </c>
       <c r="V2" t="n">
-        <v>8.367000102996826</v>
+        <v>30.8024998664856</v>
       </c>
       <c r="W2" t="n">
-        <v>8.227200050354003</v>
+        <v>29.29500003814697</v>
       </c>
       <c r="X2" t="n">
-        <v>7.995400042533874</v>
+        <v>26.98379995346069</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.227000022888183</v>
+        <v>24.70436000823975</v>
       </c>
       <c r="Z2" t="n">
-        <v>11400705.4</v>
+        <v>3205902.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>8928495.35</v>
+        <v>2630775</v>
       </c>
       <c r="AB2" t="n">
-        <v>10203927.64</v>
+        <v>2381032.68</v>
       </c>
       <c r="AC2" t="n">
-        <v>10695898.5</v>
+        <v>2121532.51</v>
       </c>
       <c r="AD2" t="n">
-        <v>7720504.16</v>
+        <v>2632625.136</v>
       </c>
     </row>
   </sheetData>

--- a/findstock.xlsx
+++ b/findstock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,61 +588,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01385.HK</t>
+          <t>00087.HK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>上海復旦</t>
+          <t>太古股份公司Ｂ</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7031</v>
+        <v>8001</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.26億</t>
+          <t>253.76億</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9426000000</v>
+        <v>25376000000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>39.24</t>
+          <t>18.91</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7.02</v>
+        <v>0.24</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>6.11%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>58.91%</t>
+          <t>38.85%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>9.42%</t>
+          <t>115.56%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>31.56億</t>
+          <t>908.02億</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>56.000%</t>
+          <t>13.000%</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>7.02億</t>
+          <t>121.03億</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -651,52 +651,276 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>33.5</v>
+        <v>8.090000152587891</v>
       </c>
       <c r="P2" t="n">
-        <v>33.79999923706055</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.34999847412109</v>
+        <v>8.090000152587891</v>
       </c>
       <c r="R2" t="n">
-        <v>33.15000152587891</v>
+        <v>8.510000228881836</v>
       </c>
       <c r="S2" t="n">
-        <v>33.15000152587891</v>
+        <v>8.510000228881836</v>
       </c>
       <c r="T2" t="n">
-        <v>2740000</v>
+        <v>6520000</v>
       </c>
       <c r="U2" t="n">
-        <v>32.54499988555908</v>
+        <v>7.479000043869019</v>
       </c>
       <c r="V2" t="n">
-        <v>30.8024998664856</v>
+        <v>7.489500021934509</v>
       </c>
       <c r="W2" t="n">
-        <v>29.29500003814697</v>
+        <v>7.719800033569336</v>
       </c>
       <c r="X2" t="n">
-        <v>26.98379995346069</v>
+        <v>7.685500011444092</v>
       </c>
       <c r="Y2" t="n">
-        <v>24.70436000823975</v>
+        <v>7.818480010986328</v>
       </c>
       <c r="Z2" t="n">
-        <v>3205902.6</v>
+        <v>2967817.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>2630775</v>
+        <v>1982808.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>2381032.68</v>
+        <v>1125153.92</v>
       </c>
       <c r="AC2" t="n">
-        <v>2121532.51</v>
+        <v>885078.0699999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>2632625.136</v>
+        <v>701187.512</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01212.HK</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>利福國際</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3014</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.09億</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6909000000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>無盈利</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>73.12%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>22.90億</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>14.000%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-11.73億</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>4.630000114440918</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.630000114440918</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.599999904632568</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4020500</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.767999982833862</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.229500007629395</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3.214800009727478</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.457500004768371</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.085999996185302</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5903023.3</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3401286.65</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1596433.56</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>953754.38</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>627509.576</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01760.HK</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>英恆科技</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.89億</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6889000000</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1.07%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>19.68%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>29.89%</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>38.89億</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>63.000%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2.65億</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>6.349999904632568</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6.440000057220459</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6.210000038146973</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6.349999904632568</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6.349999904632568</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1212000</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6.675000047683715</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6.790000033378601</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.880800004005432</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4.589399998188019</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4.694719993591309</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>4282574.9</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>5551304.4</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>5313089.14</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>3018417.07</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2530799.876</v>
       </c>
     </row>
   </sheetData>

--- a/findstock.xlsx
+++ b/findstock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,339 +588,229 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00087.HK</t>
+          <t>01271.HK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>太古股份公司Ｂ</t>
+          <t>佳明集團控股</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8001</v>
+        <v>6021</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>253.76億</t>
+          <t>94.26億</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25376000000</v>
+        <v>9426000000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>18.91</t>
+          <t>553.33</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.24</v>
+        <v>4.39</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.11%</t>
+          <t>4.22%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>38.85%</t>
+          <t>7.54%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>115.56%</t>
+          <t>2,333.33%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>908.02億</t>
+          <t>8.18億</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>13.000%</t>
+          <t>-45.000%</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>121.03億</t>
+          <t>8.56千萬</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>8.090000152587891</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="P2" t="n">
-        <v>8.579999923706055</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.090000152587891</v>
+        <v>6.449999809265137</v>
       </c>
       <c r="R2" t="n">
-        <v>8.510000228881836</v>
+        <v>6.639999866485596</v>
       </c>
       <c r="S2" t="n">
-        <v>8.510000228881836</v>
+        <v>6.639999866485596</v>
       </c>
       <c r="T2" t="n">
-        <v>6520000</v>
+        <v>342200</v>
       </c>
       <c r="U2" t="n">
-        <v>7.479000043869019</v>
+        <v>7.186000013351441</v>
       </c>
       <c r="V2" t="n">
-        <v>7.489500021934509</v>
+        <v>7.345500016212464</v>
       </c>
       <c r="W2" t="n">
-        <v>7.719800033569336</v>
+        <v>7.566399984359741</v>
       </c>
       <c r="X2" t="n">
-        <v>7.685500011444092</v>
+        <v>7.634499969482422</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.818480010986328</v>
+        <v>7.777039995193482</v>
       </c>
       <c r="Z2" t="n">
-        <v>2967817.4</v>
+        <v>86682.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>1982808.9</v>
+        <v>53691.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>1125153.92</v>
+        <v>31049.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>885078.0699999999</v>
+        <v>26922.12</v>
       </c>
       <c r="AD2" t="n">
-        <v>701187.512</v>
+        <v>26051.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01212.HK</t>
+          <t>01995.HK</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>利福國際</t>
+          <t>旭輝永升服務</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3014</v>
+        <v>6012</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69.09億</t>
+          <t>85.70億</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6909000000</v>
+        <v>8570000000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>無盈利</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>1.58</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>2.66%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>73.12%</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>27.64%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>28.96%</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>22.90億</t>
+          <t>57.59億</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>14.000%</t>
+          <t>54.000%</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-11.73億</t>
+          <t>10.92億</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>4.630000114440918</v>
+        <v>4.96999979019165</v>
       </c>
       <c r="P3" t="n">
-        <v>4.630000114440918</v>
+        <v>5.090000152587891</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.599999904632568</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="R3" t="n">
-        <v>4.599999904632568</v>
+        <v>4.889999866485596</v>
       </c>
       <c r="S3" t="n">
-        <v>4.599999904632568</v>
+        <v>4.889999866485596</v>
       </c>
       <c r="T3" t="n">
-        <v>4020500</v>
+        <v>14136100</v>
       </c>
       <c r="U3" t="n">
-        <v>3.767999982833862</v>
+        <v>4.725</v>
       </c>
       <c r="V3" t="n">
-        <v>3.229500007629395</v>
+        <v>5.201999998092651</v>
       </c>
       <c r="W3" t="n">
-        <v>3.214800009727478</v>
+        <v>7.199399995803833</v>
       </c>
       <c r="X3" t="n">
-        <v>3.457500004768371</v>
+        <v>8.572900004386902</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.085999996185302</v>
+        <v>11.86312001991272</v>
       </c>
       <c r="Z3" t="n">
-        <v>5903023.3</v>
+        <v>17121869.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>3401286.65</v>
+        <v>16407897.95</v>
       </c>
       <c r="AB3" t="n">
-        <v>1596433.56</v>
+        <v>12032043.92</v>
       </c>
       <c r="AC3" t="n">
-        <v>953754.38</v>
+        <v>9124472.52</v>
       </c>
       <c r="AD3" t="n">
-        <v>627509.576</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>01760.HK</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>英恆科技</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>68.89億</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>6889000000</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>27.91</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1.07%</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>19.68%</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>29.89%</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>38.89億</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>63.000%</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2.65億</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2022-08-12</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>6.349999904632568</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6.440000057220459</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>6.210000038146973</v>
-      </c>
-      <c r="R4" t="n">
-        <v>6.349999904632568</v>
-      </c>
-      <c r="S4" t="n">
-        <v>6.349999904632568</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1212000</v>
-      </c>
-      <c r="U4" t="n">
-        <v>6.675000047683715</v>
-      </c>
-      <c r="V4" t="n">
-        <v>6.790000033378601</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5.880800004005432</v>
-      </c>
-      <c r="X4" t="n">
-        <v>4.589399998188019</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4.694719993591309</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>4282574.9</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>5551304.4</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>5313089.14</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3018417.07</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2530799.876</v>
+        <v>7712264.076</v>
       </c>
     </row>
   </sheetData>

--- a/findstock.xlsx
+++ b/findstock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,229 +588,343 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01271.HK</t>
+          <t>01268.HK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>佳明集團控股</t>
+          <t>美東汽車</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6021</v>
+        <v>3019</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.26億</t>
+          <t>222.18億</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9426000000</v>
+        <v>22218000000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>553.33</t>
+          <t>15.20</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.39</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>5.82%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7.54%</t>
+          <t>11.75%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2,333.33%</t>
+          <t>88.49%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>8.18億</t>
+          <t>288.70億</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-45.000%</t>
+          <t>19.000%</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8.56千萬</t>
+          <t>20.79億</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-19</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>6.900000095367432</v>
+        <v>16.57999992370605</v>
       </c>
       <c r="P2" t="n">
-        <v>6.900000095367432</v>
+        <v>16.70000076293945</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.449999809265137</v>
+        <v>16.34000015258789</v>
       </c>
       <c r="R2" t="n">
-        <v>6.639999866485596</v>
+        <v>16.47999954223633</v>
       </c>
       <c r="S2" t="n">
-        <v>6.639999866485596</v>
+        <v>16.47999954223633</v>
       </c>
       <c r="T2" t="n">
-        <v>342200</v>
+        <v>1744000</v>
       </c>
       <c r="U2" t="n">
-        <v>7.186000013351441</v>
+        <v>17.02200012207031</v>
       </c>
       <c r="V2" t="n">
-        <v>7.345500016212464</v>
+        <v>17.83300008773804</v>
       </c>
       <c r="W2" t="n">
-        <v>7.566399984359741</v>
+        <v>21.43680004119873</v>
       </c>
       <c r="X2" t="n">
-        <v>7.634499969482422</v>
+        <v>23.90789999008179</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.777039995193482</v>
+        <v>32.37815994262695</v>
       </c>
       <c r="Z2" t="n">
-        <v>86682.2</v>
+        <v>3684619.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>53691.1</v>
+        <v>3443451.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>31049.4</v>
+        <v>2900557.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>26922.12</v>
+        <v>2876589.78</v>
       </c>
       <c r="AD2" t="n">
-        <v>26051.16</v>
+        <v>2660555.372</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>01271.HK</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>佳明集團控股</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6021</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>94.26億</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>9426000000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>553.33</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4.22%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>7.54%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2,333.33%</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>8.18億</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-45.000%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>8.56千萬</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6.900000095367432</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6.199999809265137</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6.900000095367432</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6.900000095367432</v>
+      </c>
+      <c r="T3" t="n">
+        <v>167000</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7.046000003814697</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7.258000040054322</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7.51939998626709</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.617299971580505</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7.768079996109009</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>117682.2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>67591.10000000001</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>37329.4</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>30262.12</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>26723.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>01995.HK</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>旭輝永升服務</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6012</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>85.70億</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E4" t="n">
         <v>8570000000</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>10.90</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>1.58</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>2.66%</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>27.64%</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>28.96%</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>57.59億</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>54.000%</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>10.92億</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2022-08-17</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>4.96999979019165</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.090000152587891</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4.699999809265137</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4.889999866485596</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.889999866485596</v>
-      </c>
-      <c r="T3" t="n">
-        <v>14136100</v>
-      </c>
-      <c r="U3" t="n">
-        <v>4.725</v>
-      </c>
-      <c r="V3" t="n">
-        <v>5.201999998092651</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.199399995803833</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8.572900004386902</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11.86312001991272</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>17121869.4</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>16407897.95</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>12032043.92</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9124472.52</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7712264.076</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>4.909999847412109</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4.730000019073486</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.949999809265137</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.949999809265137</v>
+      </c>
+      <c r="T4" t="n">
+        <v>14402000</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4.730999994277954</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5.121499991416931</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7.025599994659424</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8.450900001525879</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11.77008002090454</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>16567470.7</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>16269286.35</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>12288331.08</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9152455.58</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7790398.384</v>
       </c>
     </row>
   </sheetData>

--- a/findstock.xlsx
+++ b/findstock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,61 +588,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01268.HK</t>
+          <t>01995.HK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>美東汽車</t>
+          <t>旭輝永升服務</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3019</v>
+        <v>6012</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>222.18億</t>
+          <t>85.70億</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>22218000000</v>
+        <v>8570000000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15.20</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>1.58</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.82%</t>
+          <t>2.66%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>11.75%</t>
+          <t>27.64%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>88.49%</t>
+          <t>28.96%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>288.70億</t>
+          <t>57.59億</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>19.000%</t>
+          <t>54.000%</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20.79億</t>
+          <t>10.92億</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -651,279 +651,51 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>16.57999992370605</v>
+        <v>4.909999847412109</v>
       </c>
       <c r="P2" t="n">
-        <v>16.70000076293945</v>
+        <v>5.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>16.34000015258789</v>
+        <v>4.730000019073486</v>
       </c>
       <c r="R2" t="n">
-        <v>16.47999954223633</v>
+        <v>4.949999809265137</v>
       </c>
       <c r="S2" t="n">
-        <v>16.47999954223633</v>
+        <v>4.949999809265137</v>
       </c>
       <c r="T2" t="n">
-        <v>1744000</v>
+        <v>14402000</v>
       </c>
       <c r="U2" t="n">
-        <v>17.02200012207031</v>
+        <v>4.730999994277954</v>
       </c>
       <c r="V2" t="n">
-        <v>17.83300008773804</v>
+        <v>5.121499991416931</v>
       </c>
       <c r="W2" t="n">
-        <v>21.43680004119873</v>
+        <v>7.025599994659424</v>
       </c>
       <c r="X2" t="n">
-        <v>23.90789999008179</v>
+        <v>8.450900001525879</v>
       </c>
       <c r="Y2" t="n">
-        <v>32.37815994262695</v>
+        <v>11.77008002090454</v>
       </c>
       <c r="Z2" t="n">
-        <v>3684619.5</v>
+        <v>16567470.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>3443451.6</v>
+        <v>16269286.35</v>
       </c>
       <c r="AB2" t="n">
-        <v>2900557.4</v>
+        <v>12288331.08</v>
       </c>
       <c r="AC2" t="n">
-        <v>2876589.78</v>
+        <v>9152455.58</v>
       </c>
       <c r="AD2" t="n">
-        <v>2660555.372</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>01271.HK</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>佳明集團控股</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6021</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>94.26億</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>9426000000</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>553.33</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>4.22%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>7.54%</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2,333.33%</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>8.18億</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-45.000%</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>8.56千萬</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2022-08-19</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>6.900000095367432</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6.199999809265137</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6.900000095367432</v>
-      </c>
-      <c r="S3" t="n">
-        <v>6.900000095367432</v>
-      </c>
-      <c r="T3" t="n">
-        <v>167000</v>
-      </c>
-      <c r="U3" t="n">
-        <v>7.046000003814697</v>
-      </c>
-      <c r="V3" t="n">
-        <v>7.258000040054322</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.51939998626709</v>
-      </c>
-      <c r="X3" t="n">
-        <v>7.617299971580505</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7.768079996109009</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>117682.2</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>67591.10000000001</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>37329.4</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>30262.12</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>26723.16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>01995.HK</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>旭輝永升服務</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6012</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>85.70億</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8570000000</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.90</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2.66%</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>27.64%</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>28.96%</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>57.59億</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>54.000%</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>10.92億</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2022-08-19</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>4.909999847412109</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.730000019073486</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4.949999809265137</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.949999809265137</v>
-      </c>
-      <c r="T4" t="n">
-        <v>14402000</v>
-      </c>
-      <c r="U4" t="n">
-        <v>4.730999994277954</v>
-      </c>
-      <c r="V4" t="n">
-        <v>5.121499991416931</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.025599994659424</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8.450900001525879</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11.77008002090454</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>16567470.7</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>16269286.35</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12288331.08</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9152455.58</v>
-      </c>
-      <c r="AD4" t="n">
         <v>7790398.384</v>
       </c>
     </row>
